--- a/statistics/random_walk/intra_randomwalk.xlsx
+++ b/statistics/random_walk/intra_randomwalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\random_walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A63CE32-0079-49ED-BAB9-3BC1696A0688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A00A1B-7E98-4F0A-B7BC-A7AB99E3FBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="intra_randomwalk" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'intra_randomwalk (2)'!$A$1:$E$73</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'intra_randomwalk (2)'!$A$1:$E$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="139">
   <si>
     <t>graph_file,n_experiments,sample_percent,polarity,type,avg_walklength</t>
   </si>
@@ -311,300 +311,66 @@
     <t>Coronavirus_top.txt</t>
   </si>
   <si>
-    <t>0.3038</t>
-  </si>
-  <si>
     <t>rr</t>
   </si>
   <si>
-    <t>0.1378</t>
-  </si>
-  <si>
     <t>rp</t>
   </si>
   <si>
-    <t>0.0041</t>
-  </si>
-  <si>
     <t>pp</t>
   </si>
   <si>
     <t>Coronavirus_controversial.txt</t>
   </si>
   <si>
-    <t>0.5233</t>
-  </si>
-  <si>
-    <t>0.5574</t>
-  </si>
-  <si>
-    <t>0.0895</t>
-  </si>
-  <si>
     <t>Coronavirus_both.txt</t>
   </si>
   <si>
-    <t>0.3026</t>
-  </si>
-  <si>
-    <t>0.1611</t>
-  </si>
-  <si>
-    <t>-0.0221</t>
-  </si>
-  <si>
     <t>conspiracy_top.txt</t>
   </si>
   <si>
-    <t>0.2574</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>-0.0492</t>
-  </si>
-  <si>
     <t>conspiracy_controversial.txt</t>
   </si>
   <si>
-    <t>0.6181</t>
-  </si>
-  <si>
-    <t>0.739</t>
-  </si>
-  <si>
-    <t>0.2731</t>
-  </si>
-  <si>
     <t>conspiracy_both.txt</t>
   </si>
   <si>
-    <t>0.2617</t>
-  </si>
-  <si>
-    <t>0.1423</t>
-  </si>
-  <si>
-    <t>-0.0261</t>
-  </si>
-  <si>
     <t>science_top.txt</t>
   </si>
   <si>
-    <t>0.5972</t>
-  </si>
-  <si>
-    <t>0.4789</t>
-  </si>
-  <si>
-    <t>0.1346</t>
-  </si>
-  <si>
     <t>science_controversial.txt</t>
   </si>
   <si>
-    <t>0.8966</t>
-  </si>
-  <si>
-    <t>0.879</t>
-  </si>
-  <si>
-    <t>0.8482</t>
-  </si>
-  <si>
     <t>science_both.txt</t>
   </si>
   <si>
-    <t>0.6034</t>
-  </si>
-  <si>
-    <t>0.527</t>
-  </si>
-  <si>
-    <t>0.0883</t>
-  </si>
-  <si>
     <t>worldnews_top.txt</t>
   </si>
   <si>
-    <t>0.4248</t>
-  </si>
-  <si>
-    <t>0.1713</t>
-  </si>
-  <si>
-    <t>-0.0501</t>
-  </si>
-  <si>
     <t>worldnews_controversial.txt</t>
   </si>
   <si>
-    <t>-0.3023</t>
-  </si>
-  <si>
-    <t>0.9222</t>
-  </si>
-  <si>
-    <t>0.7201</t>
-  </si>
-  <si>
     <t>worldnews_both.txt</t>
   </si>
   <si>
-    <t>0.4389</t>
-  </si>
-  <si>
-    <t>0.2024</t>
-  </si>
-  <si>
-    <t>-0.0451</t>
-  </si>
-  <si>
     <t>MensRights_top.txt</t>
   </si>
   <si>
-    <t>0.5601</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
     <t>MensRights_controversial.txt</t>
   </si>
   <si>
-    <t>0.7118</t>
-  </si>
-  <si>
-    <t>0.9151</t>
-  </si>
-  <si>
-    <t>0.6795</t>
-  </si>
-  <si>
     <t>MensRights_both.txt</t>
   </si>
   <si>
-    <t>0.5838</t>
-  </si>
-  <si>
-    <t>0.4121</t>
-  </si>
-  <si>
-    <t>0.2283</t>
-  </si>
-  <si>
     <t>WitchesVsPatriarchy_top.txt</t>
   </si>
   <si>
-    <t>0.3564</t>
-  </si>
-  <si>
-    <t>0.2411</t>
-  </si>
-  <si>
-    <t>-0.0142</t>
-  </si>
-  <si>
     <t>WitchesVsPatriarchy_controversial.txt</t>
   </si>
   <si>
-    <t>0.7838</t>
-  </si>
-  <si>
-    <t>0.9152</t>
-  </si>
-  <si>
-    <t>0.5815</t>
-  </si>
-  <si>
     <t>WitchesVsPatriarchy_both.txt</t>
   </si>
   <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.2785</t>
-  </si>
-  <si>
-    <t>0.0306</t>
-  </si>
-  <si>
-    <t>Christianity_top.txt</t>
-  </si>
-  <si>
-    <t>0.4866</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.035</t>
-  </si>
-  <si>
-    <t>Christianity_controversial.txt</t>
-  </si>
-  <si>
-    <t>0.6439</t>
-  </si>
-  <si>
-    <t>0.5372</t>
-  </si>
-  <si>
-    <t>0.3844</t>
-  </si>
-  <si>
-    <t>Christianity_both.txt</t>
-  </si>
-  <si>
-    <t>0.5029</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
-    <t>0.0902</t>
-  </si>
-  <si>
-    <t>atheism_top.txt</t>
-  </si>
-  <si>
-    <t>0.3742</t>
-  </si>
-  <si>
-    <t>0.3153</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>atheism_controversial.txt</t>
-  </si>
-  <si>
-    <t>0.6957</t>
-  </si>
-  <si>
-    <t>0.7137</t>
-  </si>
-  <si>
-    <t>0.0584</t>
-  </si>
-  <si>
-    <t>atheism_both.txt</t>
-  </si>
-  <si>
-    <t>0.4066</t>
-  </si>
-  <si>
-    <t>0.271</t>
-  </si>
-  <si>
-    <t>-0.0444</t>
-  </si>
-  <si>
     <t>Subreddit</t>
   </si>
   <si>
@@ -632,9 +398,6 @@
     <t>science</t>
   </si>
   <si>
-    <t>worldnews</t>
-  </si>
-  <si>
     <t>MensRights</t>
   </si>
   <si>
@@ -642,6 +405,63 @@
   </si>
   <si>
     <t>RW(rp)</t>
+  </si>
+  <si>
+    <t>abortion_top.txt</t>
+  </si>
+  <si>
+    <t>abortion_controversial.txt</t>
+  </si>
+  <si>
+    <t>abortion_both.txt</t>
+  </si>
+  <si>
+    <t>TwoXChromosomes_top.txt</t>
+  </si>
+  <si>
+    <t>TwoXChromosomes_controversial.txt</t>
+  </si>
+  <si>
+    <t>TwoXChromosomes_both.txt</t>
+  </si>
+  <si>
+    <t>lgbt_top.txt</t>
+  </si>
+  <si>
+    <t>lgbt_controversial.txt</t>
+  </si>
+  <si>
+    <t>lgbt_both.txt</t>
+  </si>
+  <si>
+    <t>Conservative_top.txt</t>
+  </si>
+  <si>
+    <t>Conservative_controversial.txt</t>
+  </si>
+  <si>
+    <t>Conservative_both.txt</t>
+  </si>
+  <si>
+    <t>space_top.txt</t>
+  </si>
+  <si>
+    <t>space_controversial.txt</t>
+  </si>
+  <si>
+    <t>space_top_conspiracy_top.txt</t>
+  </si>
+  <si>
+    <t>space_both_conspiracy_both.txt</t>
+  </si>
+  <si>
+    <t>lgbt</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>space</t>
   </si>
 </sst>
 </file>
@@ -995,7 +815,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1111,17 +931,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1138,45 +947,12 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="9" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color theme="9" tint="0.39997558519241921"/>
       </bottom>
@@ -1266,13 +1042,129 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="9" tint="0.39997558519241921"/>
       </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1322,41 +1214,57 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="16" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1452,8 +1360,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="intra_randomwalk" displayName="intra_randomwalk" ref="A1:E73" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="intra_randomwalk" displayName="intra_randomwalk" ref="A1:E111" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E111" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="graph_file" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="n_experiments" queryTableFieldId="2" dataDxfId="3"/>
@@ -1762,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,11 +1710,11 @@
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
       </c>
       <c r="E2">
         <v>15.3439</v>
@@ -1819,33 +1727,33 @@
       <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
-        <v>90</v>
+      <c r="C3">
+        <v>0.13780000000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>44.651499999999999</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="H3" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1854,1399 +1762,2131 @@
       <c r="B4">
         <v>100</v>
       </c>
-      <c r="C4" t="s">
-        <v>92</v>
+      <c r="C4">
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>51.272500000000001</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>190</v>
+      <c r="H4" s="16"/>
+      <c r="I4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
-        <v>95</v>
+      <c r="C5">
+        <v>0.52329999999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>22.009499999999999</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="6">
         <v>0.30380000000000001</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>0.52329999999999999</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <v>0.30259999999999998</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <v>0.13780000000000001</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="12">
         <v>0.55740000000000001</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="7">
         <v>0.16109999999999999</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="6">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="8">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="18">
         <v>-2.2100000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
-        <v>96</v>
+      <c r="C6">
+        <v>0.55740000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>28.052499999999998</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.25740000000000002</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="14">
         <v>0.61809999999999998</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="5">
         <v>0.26169999999999999</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="9">
         <v>0.14399999999999999</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="13">
         <v>0.73899999999999999</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="9">
         <v>0.14230000000000001</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="5">
         <v>-4.9200000000000001E-2</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="10">
         <v>0.27310000000000001</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="11">
         <v>-2.6100000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7" t="s">
-        <v>97</v>
+      <c r="C7">
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>44.64</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="H7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="9">
         <v>0.59719999999999995</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="13">
         <v>0.89659999999999995</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="9">
         <v>0.60340000000000005</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="5">
         <v>0.47889999999999999</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="14">
         <v>0.879</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="13">
         <v>0.52700000000000002</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="9">
         <v>0.1346</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="15">
         <v>0.84819999999999995</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="10">
         <v>8.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
-      <c r="C8" t="s">
-        <v>99</v>
+      <c r="C8">
+        <v>0.16109999999999999</v>
       </c>
       <c r="D8" t="s">
         <v>89</v>
       </c>
       <c r="E8">
-        <v>15.494199999999999</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.42480000000000001</v>
-      </c>
-      <c r="J8" s="13">
-        <v>-0.30230000000000001</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0.43890000000000001</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0.17130000000000001</v>
-      </c>
-      <c r="M8" s="24">
-        <v>0.92220000000000002</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0.2024</v>
-      </c>
-      <c r="O8" s="8">
-        <v>-5.0099999999999999E-2</v>
-      </c>
-      <c r="P8" s="29">
-        <v>0.72009999999999996</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>-4.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>46.339500000000001</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="K8" s="30">
+        <v>0.58379999999999999</v>
+      </c>
+      <c r="L8" s="31">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="N8" s="31">
+        <v>0.41210000000000002</v>
+      </c>
+      <c r="O8" s="30">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="P8" s="33">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="Q8" s="34">
+        <v>0.2283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9" t="s">
-        <v>100</v>
+      <c r="C9">
+        <v>-2.2100000000000002E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>46.339500000000001</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0.56010000000000004</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.71179999999999999</v>
-      </c>
-      <c r="K9" s="13">
-        <v>0.58379999999999999</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0.41499999999999998</v>
+        <v>54.107500000000002</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="J9" s="35">
+        <v>0.78380000000000005</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="L9" s="24">
+        <v>0.24110000000000001</v>
       </c>
       <c r="M9" s="25">
-        <v>0.91510000000000002</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0.41210000000000002</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0.67949999999999999</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>0.2283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="N9" s="24">
+        <v>0.27850000000000003</v>
+      </c>
+      <c r="O9" s="23">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="P9" s="36">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
-        <v>101</v>
+      <c r="C10">
+        <v>0.25740000000000002</v>
       </c>
       <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10">
+        <v>13.988099999999999</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.53480000000000005</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="M10" s="29">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N10" s="29">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="O10" s="29">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>3.3099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>93</v>
       </c>
-      <c r="E10">
-        <v>54.107500000000002</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="J10" s="27">
-        <v>0.78380000000000005</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="L10" s="17">
-        <v>0.24110000000000001</v>
-      </c>
-      <c r="M10" s="26">
-        <v>0.91520000000000001</v>
-      </c>
-      <c r="N10" s="17">
-        <v>0.27850000000000003</v>
-      </c>
-      <c r="O10" s="18">
-        <v>-1.4200000000000001E-2</v>
-      </c>
-      <c r="P10" s="19">
-        <v>0.58150000000000002</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
       <c r="B11">
         <v>100</v>
       </c>
-      <c r="C11" t="s">
-        <v>103</v>
+      <c r="C11">
+        <v>0.14399999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>89</v>
       </c>
       <c r="E11">
-        <v>13.988099999999999</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>31.771000000000001</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="41">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="J11" s="42">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="L11" s="43">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0.3574</v>
+      </c>
+      <c r="O11" s="22">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P11" s="42">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
-      <c r="C12" t="s">
-        <v>104</v>
+      <c r="C12">
+        <v>-4.9200000000000001E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12">
-        <v>31.771000000000001</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+        <v>34.563000000000002</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="L12" s="27">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="N12" s="27">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="O12" s="28">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="P12" s="28">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.24979999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>105</v>
+      <c r="C13">
+        <v>0.61809999999999998</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E13">
-        <v>34.563000000000002</v>
-      </c>
-      <c r="I13" s="22"/>
+        <v>17.688600000000001</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="M13" s="44">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="N13" s="45">
+        <v>0.81889999999999996</v>
+      </c>
+      <c r="O13" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="P13" s="21">
+        <v>0.7772</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.66690000000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B14">
         <v>100</v>
       </c>
-      <c r="C14" t="s">
-        <v>107</v>
+      <c r="C14">
+        <v>0.73899999999999999</v>
       </c>
       <c r="D14" t="s">
         <v>89</v>
       </c>
       <c r="E14">
-        <v>17.688600000000001</v>
+        <v>17.443000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B15">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
-        <v>108</v>
+      <c r="C15">
+        <v>0.27310000000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>17.443000000000001</v>
+        <v>33.390999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B16">
         <v>100</v>
       </c>
-      <c r="C16" t="s">
-        <v>109</v>
+      <c r="C16">
+        <v>0.26169999999999999</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E16">
-        <v>33.390999999999998</v>
+        <v>13.9208</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <v>100</v>
       </c>
-      <c r="C17" t="s">
-        <v>111</v>
+      <c r="C17">
+        <v>0.14230000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>89</v>
       </c>
       <c r="E17">
-        <v>13.9208</v>
+        <v>34.659999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>100</v>
       </c>
-      <c r="C18" t="s">
-        <v>112</v>
+      <c r="C18">
+        <v>-2.6100000000000002E-2</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18">
-        <v>34.659999999999997</v>
+        <v>36.277500000000003</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
-      <c r="C19" t="s">
-        <v>113</v>
+      <c r="C19">
+        <v>0.59719999999999995</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E19">
-        <v>36.277500000000003</v>
+        <v>21.5213</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B20">
         <v>100</v>
       </c>
-      <c r="C20" t="s">
-        <v>115</v>
+      <c r="C20">
+        <v>0.47889999999999999</v>
       </c>
       <c r="D20" t="s">
         <v>89</v>
       </c>
       <c r="E20">
-        <v>21.5213</v>
+        <v>50.095500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>100</v>
       </c>
-      <c r="C21" t="s">
-        <v>116</v>
+      <c r="C21">
+        <v>0.1346</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21">
-        <v>50.095500000000001</v>
+        <v>67.913499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B22">
         <v>100</v>
       </c>
-      <c r="C22" t="s">
-        <v>117</v>
+      <c r="C22">
+        <v>0.89659999999999995</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E22">
-        <v>67.913499999999999</v>
+        <v>30.1341</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B23">
         <v>100</v>
       </c>
-      <c r="C23" t="s">
-        <v>119</v>
+      <c r="C23">
+        <v>0.879</v>
       </c>
       <c r="D23" t="s">
         <v>89</v>
       </c>
       <c r="E23">
-        <v>30.1341</v>
+        <v>27.803999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
+      <c r="C24">
+        <v>0.84819999999999995</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24">
-        <v>27.803999999999998</v>
+        <v>20.568000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>100</v>
       </c>
-      <c r="C25" t="s">
-        <v>121</v>
+      <c r="C25">
+        <v>0.60340000000000005</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E25">
-        <v>20.568000000000001</v>
+        <v>21.253</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B26">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
-        <v>123</v>
+      <c r="C26">
+        <v>0.52700000000000002</v>
       </c>
       <c r="D26" t="s">
         <v>89</v>
       </c>
       <c r="E26">
-        <v>21.253</v>
+        <v>51.503500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B27">
         <v>100</v>
       </c>
-      <c r="C27" t="s">
-        <v>124</v>
+      <c r="C27">
+        <v>8.8300000000000003E-2</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27">
-        <v>51.503500000000003</v>
+        <v>63.784500000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B28">
         <v>100</v>
       </c>
-      <c r="C28" t="s">
-        <v>125</v>
+      <c r="C28">
+        <v>0.42480000000000001</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E28">
-        <v>63.784500000000001</v>
+        <v>18.007999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B29">
         <v>100</v>
       </c>
-      <c r="C29" t="s">
-        <v>127</v>
+      <c r="C29">
+        <v>0.17130000000000001</v>
       </c>
       <c r="D29" t="s">
         <v>89</v>
       </c>
       <c r="E29">
-        <v>18.007999999999999</v>
+        <v>80.683499999999995</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B30">
         <v>100</v>
       </c>
-      <c r="C30" t="s">
-        <v>128</v>
+      <c r="C30">
+        <v>-5.0099999999999999E-2</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30">
-        <v>80.683499999999995</v>
+        <v>99.904499999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>100</v>
       </c>
-      <c r="C31" t="s">
-        <v>129</v>
+      <c r="C31">
+        <v>-0.30230000000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E31">
-        <v>99.904499999999999</v>
+        <v>43.274999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B32">
         <v>100</v>
       </c>
-      <c r="C32" t="s">
-        <v>131</v>
+      <c r="C32">
+        <v>0.92220000000000002</v>
       </c>
       <c r="D32" t="s">
         <v>89</v>
       </c>
       <c r="E32">
-        <v>43.274999999999999</v>
+        <v>1.3065</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B33">
         <v>100</v>
       </c>
-      <c r="C33" t="s">
-        <v>132</v>
+      <c r="C33">
+        <v>0.72009999999999996</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33">
-        <v>1.3065</v>
+        <v>2.6234999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B34">
         <v>100</v>
       </c>
-      <c r="C34" t="s">
-        <v>133</v>
+      <c r="C34">
+        <v>0.43890000000000001</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E34">
-        <v>2.6234999999999999</v>
+        <v>18.0335</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B35">
         <v>100</v>
       </c>
-      <c r="C35" t="s">
-        <v>135</v>
+      <c r="C35">
+        <v>0.2024</v>
       </c>
       <c r="D35" t="s">
         <v>89</v>
       </c>
       <c r="E35">
-        <v>18.0335</v>
+        <v>81.921499999999995</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>100</v>
       </c>
-      <c r="C36" t="s">
-        <v>136</v>
+      <c r="C36">
+        <v>-4.5100000000000001E-2</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36">
-        <v>81.921499999999995</v>
+        <v>105.119</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B37">
         <v>100</v>
       </c>
-      <c r="C37" t="s">
-        <v>137</v>
+      <c r="C37">
+        <v>0.56010000000000004</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E37">
-        <v>105.119</v>
+        <v>16.447900000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B38">
         <v>100</v>
       </c>
-      <c r="C38" t="s">
-        <v>139</v>
+      <c r="C38">
+        <v>0.41499999999999998</v>
       </c>
       <c r="D38" t="s">
         <v>89</v>
       </c>
       <c r="E38">
-        <v>16.447900000000001</v>
+        <v>32.9955</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B39">
         <v>100</v>
       </c>
-      <c r="C39" t="s">
-        <v>140</v>
+      <c r="C39">
+        <v>0.17199999999999999</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39">
-        <v>32.9955</v>
+        <v>30.452000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B40">
         <v>100</v>
       </c>
-      <c r="C40" t="s">
-        <v>141</v>
+      <c r="C40">
+        <v>0.71179999999999999</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E40">
-        <v>30.452000000000002</v>
+        <v>23.9194</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="B41">
         <v>100</v>
       </c>
-      <c r="C41" t="s">
-        <v>143</v>
+      <c r="C41">
+        <v>0.91510000000000002</v>
       </c>
       <c r="D41" t="s">
         <v>89</v>
       </c>
       <c r="E41">
-        <v>23.9194</v>
+        <v>12.986000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="B42">
         <v>100</v>
       </c>
-      <c r="C42" t="s">
-        <v>144</v>
+      <c r="C42">
+        <v>0.67949999999999999</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42">
-        <v>12.986000000000001</v>
+        <v>15.542</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="B43">
         <v>100</v>
       </c>
-      <c r="C43" t="s">
-        <v>145</v>
+      <c r="C43">
+        <v>0.58379999999999999</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E43">
-        <v>15.542</v>
+        <v>16.460100000000001</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="B44">
         <v>100</v>
       </c>
-      <c r="C44" t="s">
-        <v>147</v>
+      <c r="C44">
+        <v>0.41210000000000002</v>
       </c>
       <c r="D44" t="s">
         <v>89</v>
       </c>
       <c r="E44">
-        <v>16.460100000000001</v>
+        <v>29.6815</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="B45">
         <v>100</v>
       </c>
-      <c r="C45" t="s">
-        <v>148</v>
+      <c r="C45">
+        <v>0.2283</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E45">
-        <v>29.6815</v>
+        <v>32.186</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B46">
         <v>100</v>
       </c>
-      <c r="C46" t="s">
-        <v>149</v>
+      <c r="C46">
+        <v>0.35639999999999999</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E46">
-        <v>32.186</v>
+        <v>15.4209</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B47">
         <v>100</v>
       </c>
-      <c r="C47" t="s">
-        <v>151</v>
+      <c r="C47">
+        <v>0.24110000000000001</v>
       </c>
       <c r="D47" t="s">
         <v>89</v>
       </c>
       <c r="E47">
-        <v>15.4209</v>
+        <v>24.486000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B48">
         <v>100</v>
       </c>
-      <c r="C48" t="s">
-        <v>152</v>
+      <c r="C48">
+        <v>-1.4200000000000001E-2</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48">
-        <v>24.486000000000001</v>
+        <v>26.861000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="B49">
         <v>100</v>
       </c>
-      <c r="C49" t="s">
-        <v>153</v>
+      <c r="C49">
+        <v>0.78380000000000005</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E49">
-        <v>26.861000000000001</v>
+        <v>23.977699999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="B50">
         <v>100</v>
       </c>
-      <c r="C50" t="s">
-        <v>155</v>
+      <c r="C50">
+        <v>0.91520000000000001</v>
       </c>
       <c r="D50" t="s">
         <v>89</v>
       </c>
       <c r="E50">
-        <v>23.977699999999999</v>
+        <v>11.532</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>100</v>
       </c>
-      <c r="C51" t="s">
-        <v>156</v>
+      <c r="C51">
+        <v>0.58150000000000002</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E51">
-        <v>11.532</v>
+        <v>39.996499999999997</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>100</v>
       </c>
-      <c r="C52" t="s">
-        <v>157</v>
+      <c r="C52">
+        <v>0.38100000000000001</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E52">
-        <v>39.996499999999997</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="B53">
         <v>100</v>
       </c>
-      <c r="C53" t="s">
-        <v>159</v>
+      <c r="C53">
+        <v>0.27850000000000003</v>
       </c>
       <c r="D53" t="s">
         <v>89</v>
       </c>
       <c r="E53">
-        <v>15.29</v>
+        <v>24.814</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="B54">
         <v>100</v>
       </c>
-      <c r="C54" t="s">
-        <v>160</v>
+      <c r="C54">
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54">
-        <v>24.814</v>
+        <v>26.836500000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B55">
         <v>100</v>
       </c>
-      <c r="C55" t="s">
-        <v>161</v>
+      <c r="C55">
+        <v>0.29909999999999998</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E55">
-        <v>26.836500000000001</v>
+        <v>17.397099999999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B56">
         <v>100</v>
       </c>
-      <c r="C56" t="s">
-        <v>163</v>
+      <c r="C56">
+        <v>0.54239999999999999</v>
       </c>
       <c r="D56" t="s">
         <v>89</v>
       </c>
       <c r="E56">
-        <v>16.713699999999999</v>
+        <v>7.8550000000000004</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="B57">
         <v>100</v>
       </c>
-      <c r="C57" t="s">
-        <v>164</v>
+      <c r="C57">
+        <v>0.13270000000000001</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57">
-        <v>50.533999999999999</v>
+        <v>12.772</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="B58">
         <v>100</v>
       </c>
-      <c r="C58" t="s">
-        <v>165</v>
+      <c r="C58">
+        <v>0.55730000000000002</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E58">
-        <v>59.655999999999999</v>
+        <v>22.3627</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="B59">
         <v>100</v>
       </c>
-      <c r="C59" t="s">
-        <v>167</v>
+      <c r="C59">
+        <v>0.65920000000000001</v>
       </c>
       <c r="D59" t="s">
         <v>89</v>
       </c>
       <c r="E59">
-        <v>16.921399999999998</v>
+        <v>20.402999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="B60">
         <v>100</v>
       </c>
-      <c r="C60" t="s">
-        <v>168</v>
+      <c r="C60">
+        <v>0.48110000000000003</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60">
-        <v>34.805999999999997</v>
+        <v>17.724</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="B61">
         <v>100</v>
       </c>
-      <c r="C61" t="s">
-        <v>169</v>
+      <c r="C61">
+        <v>0.4965</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E61">
-        <v>33.314</v>
+        <v>18.8825</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="B62">
         <v>100</v>
       </c>
-      <c r="C62" t="s">
-        <v>171</v>
+      <c r="C62">
+        <v>0.66900000000000004</v>
       </c>
       <c r="D62" t="s">
         <v>89</v>
       </c>
       <c r="E62">
-        <v>16.591799999999999</v>
+        <v>16.668500000000002</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="B63">
         <v>100</v>
       </c>
-      <c r="C63" t="s">
-        <v>172</v>
+      <c r="C63">
+        <v>0.14269999999999999</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E63">
-        <v>45.323999999999998</v>
+        <v>17.393999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B64">
         <v>100</v>
       </c>
-      <c r="C64" t="s">
-        <v>173</v>
+      <c r="C64">
+        <v>0.30819999999999997</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E64">
-        <v>45.216999999999999</v>
+        <v>16.049700000000001</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B65">
         <v>100</v>
       </c>
-      <c r="C65" t="s">
-        <v>175</v>
+      <c r="C65">
+        <v>0.32129999999999997</v>
       </c>
       <c r="D65" t="s">
         <v>89</v>
       </c>
       <c r="E65">
-        <v>15.799899999999999</v>
+        <v>19.278500000000001</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B66">
         <v>100</v>
       </c>
-      <c r="C66" t="s">
-        <v>176</v>
+      <c r="C66">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E66">
-        <v>24.41</v>
+        <v>25.7545</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B67">
         <v>100</v>
       </c>
-      <c r="C67" t="s">
-        <v>177</v>
+      <c r="C67">
+        <v>0.93869999999999998</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E67">
-        <v>30.5185</v>
+        <v>21.373100000000001</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="B68">
         <v>100</v>
       </c>
-      <c r="C68" t="s">
-        <v>179</v>
+      <c r="C68">
+        <v>0.97699999999999998</v>
       </c>
       <c r="D68" t="s">
         <v>89</v>
       </c>
       <c r="E68">
-        <v>20.052900000000001</v>
+        <v>10.827</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="B69">
         <v>100</v>
       </c>
-      <c r="C69" t="s">
-        <v>180</v>
+      <c r="C69">
+        <v>0.82140000000000002</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69">
-        <v>26.487500000000001</v>
+        <v>32.947000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="B70">
         <v>100</v>
       </c>
-      <c r="C70" t="s">
-        <v>181</v>
+      <c r="C70">
+        <v>0.40410000000000001</v>
       </c>
       <c r="D70" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E70">
-        <v>71.376999999999995</v>
+        <v>16.5869</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="B71">
         <v>100</v>
       </c>
-      <c r="C71" t="s">
-        <v>183</v>
+      <c r="C71">
+        <v>0.28310000000000002</v>
       </c>
       <c r="D71" t="s">
         <v>89</v>
       </c>
       <c r="E71">
-        <v>16.152200000000001</v>
+        <v>52.292000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="B72">
         <v>100</v>
       </c>
-      <c r="C72" t="s">
-        <v>184</v>
+      <c r="C72">
+        <v>-3.95E-2</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E72">
-        <v>30.965499999999999</v>
+        <v>31.651499999999999</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B73">
         <v>100</v>
       </c>
-      <c r="C73" t="s">
-        <v>185</v>
+      <c r="C73">
+        <v>0.36899999999999999</v>
       </c>
       <c r="D73" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73">
+        <v>16.3127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="D74" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74">
+        <v>11.337999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75">
+        <v>21.829499999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>0.53480000000000005</v>
+      </c>
+      <c r="D76" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76">
+        <v>21.692</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="D77" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77">
+        <v>25.355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="D78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78">
+        <v>39.331000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="D79" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79">
+        <v>16.8476</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="D80" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80">
+        <v>19.968</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81">
+        <v>31.206499999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82">
+        <v>100</v>
+      </c>
+      <c r="C82">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="D82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82">
+        <v>16.187100000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="D83" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83">
+        <v>15.936</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84">
+        <v>23.489000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85">
+        <v>100</v>
+      </c>
+      <c r="C85">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="D85" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85">
+        <v>21.460100000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86">
+        <v>4.8224999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87">
+        <v>24.5535</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+      <c r="C88">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="D88" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88">
+        <v>16.368300000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89">
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>0.3574</v>
+      </c>
+      <c r="D89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89">
+        <v>16.738499999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90">
+        <v>100</v>
+      </c>
+      <c r="C90">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90">
+        <v>22.551500000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>93</v>
       </c>
-      <c r="E73">
-        <v>38.113999999999997</v>
+      <c r="B91">
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>100</v>
+      </c>
+      <c r="C92">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="D92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92">
+        <v>23.697500000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="D93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93">
+        <v>31.43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+      <c r="C94">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="D94" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>100</v>
+      </c>
+      <c r="C95">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="D95" t="s">
+        <v>89</v>
+      </c>
+      <c r="E95">
+        <v>3.4155000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D96" t="s">
+        <v>90</v>
+      </c>
+      <c r="E96">
+        <v>5.7569999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D97" t="s">
+        <v>88</v>
+      </c>
+      <c r="E97">
+        <v>17.948699999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>100</v>
+      </c>
+      <c r="C98">
+        <v>0.54390000000000005</v>
+      </c>
+      <c r="D98" t="s">
+        <v>89</v>
+      </c>
+      <c r="E98">
+        <v>25.501999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99">
+        <v>100</v>
+      </c>
+      <c r="C99">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="D99" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99">
+        <v>37.284500000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="D100" t="s">
+        <v>88</v>
+      </c>
+      <c r="E100">
+        <v>22.660399999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="D101" t="s">
+        <v>89</v>
+      </c>
+      <c r="E101">
+        <v>47.808</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>0.15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102">
+        <v>91.332499999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="D103" t="s">
+        <v>88</v>
+      </c>
+      <c r="E103">
+        <v>22.770900000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104">
+        <v>100</v>
+      </c>
+      <c r="C104">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="D104" t="s">
+        <v>89</v>
+      </c>
+      <c r="E104">
+        <v>13.266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105">
+        <v>100</v>
+      </c>
+      <c r="C105">
+        <v>0.7772</v>
+      </c>
+      <c r="D105" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105">
+        <v>60.475499999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106">
+        <v>100</v>
+      </c>
+      <c r="C106">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D106" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106">
+        <v>20.5764</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107">
+        <v>100</v>
+      </c>
+      <c r="C107">
+        <v>0.81889999999999996</v>
+      </c>
+      <c r="D107" t="s">
+        <v>89</v>
+      </c>
+      <c r="E107">
+        <v>64.778000000000006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108">
+        <v>100</v>
+      </c>
+      <c r="C108">
+        <v>0.66690000000000005</v>
+      </c>
+      <c r="D108" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108">
+        <v>103.39749999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="D109" t="s">
+        <v>88</v>
+      </c>
+      <c r="E109">
+        <v>20.7014</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110">
+        <v>100</v>
+      </c>
+      <c r="C110">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D110" t="s">
+        <v>89</v>
+      </c>
+      <c r="E110">
+        <v>68.950999999999993</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111">
+        <v>100</v>
+      </c>
+      <c r="C111">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="D111" t="s">
+        <v>90</v>
+      </c>
+      <c r="E111">
+        <v>104.9255</v>
       </c>
     </row>
   </sheetData>
